--- a/Test Case - 1/TC1Results_G.xlsx
+++ b/Test Case - 1/TC1Results_G.xlsx
@@ -890,7 +890,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -931,6 +931,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -944,9 +953,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -955,11 +961,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1006,27 +1009,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="25">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="17">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1174,66 +1157,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1535,9 +1458,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1546,56 +1469,56 @@
     <col min="2" max="7" width="9.140625" style="5"/>
     <col min="8" max="8" width="38" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="9.140625" style="1"/>
-    <col min="18" max="18" width="9.140625" style="23"/>
+    <col min="18" max="18" width="9.140625" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16" t="s">
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16" t="s">
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="M1" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="N1" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="O1" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="P1" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="Q1" s="17" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
+      <c r="A2" s="20"/>
       <c r="B2" s="4" t="s">
         <v>58</v>
       </c>
@@ -1614,20 +1537,20 @@
       <c r="G2" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="H2" s="17"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="15" t="s">
+      <c r="H2" s="20"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="O2" s="15" t="s">
+      <c r="O2" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
@@ -1666,7 +1589,7 @@
       <c r="N3" s="13"/>
       <c r="O3" s="13"/>
       <c r="P3" s="13"/>
-      <c r="R3" s="23" t="s">
+      <c r="R3" s="16" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1713,7 +1636,7 @@
       <c r="O4" s="13">
         <v>20.152000000000001</v>
       </c>
-      <c r="R4" s="23" t="s">
+      <c r="R4" s="16" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1760,7 +1683,7 @@
       <c r="O5" s="13">
         <v>20.152000000000001</v>
       </c>
-      <c r="R5" s="23" t="s">
+      <c r="R5" s="16" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1807,7 +1730,7 @@
       <c r="O6" s="13">
         <v>20.152000000000001</v>
       </c>
-      <c r="R6" s="23" t="s">
+      <c r="R6" s="16" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1854,7 +1777,7 @@
       <c r="O7" s="13">
         <v>20.152000000000001</v>
       </c>
-      <c r="R7" s="23" t="s">
+      <c r="R7" s="16" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1920,7 +1843,7 @@
       <c r="O9" s="13">
         <v>30.152000000000001</v>
       </c>
-      <c r="R9" s="23" t="s">
+      <c r="R9" s="16" t="s">
         <v>7</v>
       </c>
       <c r="V9">
@@ -1990,7 +1913,7 @@
       <c r="O11" s="13">
         <v>30.152000000000001</v>
       </c>
-      <c r="R11" s="23" t="s">
+      <c r="R11" s="16" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2056,7 +1979,7 @@
       <c r="O13" s="13">
         <v>30.152000000000001</v>
       </c>
-      <c r="R13" s="23" t="s">
+      <c r="R13" s="16" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2103,7 +2026,7 @@
       <c r="O14" s="13">
         <v>30.152000000000001</v>
       </c>
-      <c r="R14" s="23" t="s">
+      <c r="R14" s="16" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2129,7 +2052,7 @@
       <c r="G15" s="13">
         <v>20</v>
       </c>
-      <c r="H15" s="22" t="s">
+      <c r="H15" s="15" t="s">
         <v>11</v>
       </c>
       <c r="J15" s="13">
@@ -2150,7 +2073,7 @@
       <c r="O15" s="13">
         <v>30.152000000000001</v>
       </c>
-      <c r="R15" s="23" t="s">
+      <c r="R15" s="16" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2197,7 +2120,7 @@
       <c r="O16" s="13">
         <v>30.152000000000001</v>
       </c>
-      <c r="R16" s="23" t="s">
+      <c r="R16" s="16" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2244,7 +2167,7 @@
       <c r="O17" s="13">
         <v>30.152000000000001</v>
       </c>
-      <c r="R17" s="23" t="s">
+      <c r="R17" s="16" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2291,7 +2214,7 @@
       <c r="O18" s="13">
         <v>30.152000000000001</v>
       </c>
-      <c r="R18" s="23" t="s">
+      <c r="R18" s="16" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2338,7 +2261,7 @@
       <c r="O19" s="13">
         <v>30.152000000000001</v>
       </c>
-      <c r="R19" s="23" t="s">
+      <c r="R19" s="16" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2385,7 +2308,7 @@
       <c r="O20" s="13">
         <v>30.152000000000001</v>
       </c>
-      <c r="R20" s="23" t="s">
+      <c r="R20" s="16" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2432,7 +2355,7 @@
       <c r="O21" s="13">
         <v>30.152000000000001</v>
       </c>
-      <c r="R21" s="23" t="s">
+      <c r="R21" s="16" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2479,7 +2402,7 @@
       <c r="O22" s="13">
         <v>30.152000000000001</v>
       </c>
-      <c r="R22" s="23" t="s">
+      <c r="R22" s="16" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2526,7 +2449,7 @@
       <c r="O23" s="13">
         <v>30.152000000000001</v>
       </c>
-      <c r="R23" s="23" t="s">
+      <c r="R23" s="16" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2573,7 +2496,7 @@
       <c r="O24" s="13">
         <v>30.152000000000001</v>
       </c>
-      <c r="R24" s="23" t="s">
+      <c r="R24" s="16" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2620,7 +2543,7 @@
       <c r="O25" s="13">
         <v>30.152000000000001</v>
       </c>
-      <c r="R25" s="23" t="s">
+      <c r="R25" s="16" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2661,7 +2584,7 @@
       <c r="N26" s="13"/>
       <c r="O26" s="13"/>
       <c r="P26" s="13"/>
-      <c r="R26" s="23" t="s">
+      <c r="R26" s="16" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2702,7 +2625,7 @@
       <c r="N27" s="13"/>
       <c r="O27" s="13"/>
       <c r="P27" s="13"/>
-      <c r="R27" s="23" t="s">
+      <c r="R27" s="16" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2743,7 +2666,7 @@
       <c r="N28" s="13"/>
       <c r="O28" s="13"/>
       <c r="P28" s="13"/>
-      <c r="R28" s="23" t="s">
+      <c r="R28" s="16" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2784,7 +2707,7 @@
       <c r="N29" s="13"/>
       <c r="O29" s="13"/>
       <c r="P29" s="13"/>
-      <c r="R29" s="23" t="s">
+      <c r="R29" s="16" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2825,7 +2748,7 @@
       <c r="N30" s="13"/>
       <c r="O30" s="13"/>
       <c r="P30" s="13"/>
-      <c r="R30" s="23" t="s">
+      <c r="R30" s="16" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2866,7 +2789,7 @@
       <c r="N31" s="13"/>
       <c r="O31" s="13"/>
       <c r="P31" s="13"/>
-      <c r="R31" s="23" t="s">
+      <c r="R31" s="16" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2907,7 +2830,7 @@
       <c r="N32" s="13"/>
       <c r="O32" s="13"/>
       <c r="P32" s="13"/>
-      <c r="R32" s="23" t="s">
+      <c r="R32" s="16" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2948,7 +2871,7 @@
       <c r="N33" s="13"/>
       <c r="O33" s="13"/>
       <c r="P33" s="13"/>
-      <c r="R33" s="23" t="s">
+      <c r="R33" s="16" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2989,7 +2912,7 @@
       <c r="N34" s="13"/>
       <c r="O34" s="13"/>
       <c r="P34" s="13"/>
-      <c r="R34" s="23" t="s">
+      <c r="R34" s="16" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3030,7 +2953,7 @@
       <c r="N35" s="13"/>
       <c r="O35" s="13"/>
       <c r="P35" s="13"/>
-      <c r="R35" s="23" t="s">
+      <c r="R35" s="16" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3071,7 +2994,7 @@
       <c r="N36" s="13"/>
       <c r="O36" s="13"/>
       <c r="P36" s="13"/>
-      <c r="R36" s="23" t="s">
+      <c r="R36" s="16" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3112,7 +3035,7 @@
       <c r="N37" s="13"/>
       <c r="O37" s="13"/>
       <c r="P37" s="13"/>
-      <c r="R37" s="23" t="s">
+      <c r="R37" s="16" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3153,7 +3076,7 @@
       <c r="N38" s="13"/>
       <c r="O38" s="13"/>
       <c r="P38" s="13"/>
-      <c r="R38" s="23" t="s">
+      <c r="R38" s="16" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3194,7 +3117,7 @@
       <c r="N39" s="13"/>
       <c r="O39" s="13"/>
       <c r="P39" s="13"/>
-      <c r="R39" s="23" t="s">
+      <c r="R39" s="16" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3235,7 +3158,7 @@
       <c r="N40" s="13"/>
       <c r="O40" s="13"/>
       <c r="P40" s="13"/>
-      <c r="R40" s="23" t="s">
+      <c r="R40" s="16" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3276,7 +3199,7 @@
       <c r="N41" s="13"/>
       <c r="O41" s="13"/>
       <c r="P41" s="13"/>
-      <c r="R41" s="23" t="s">
+      <c r="R41" s="16" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3317,7 +3240,7 @@
       <c r="N42" s="13"/>
       <c r="O42" s="13"/>
       <c r="P42" s="13"/>
-      <c r="R42" s="23" t="s">
+      <c r="R42" s="16" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3358,7 +3281,7 @@
       <c r="N43" s="13"/>
       <c r="O43" s="13"/>
       <c r="P43" s="13"/>
-      <c r="R43" s="23" t="s">
+      <c r="R43" s="16" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3399,7 +3322,7 @@
       <c r="N44" s="13"/>
       <c r="O44" s="13"/>
       <c r="P44" s="13"/>
-      <c r="R44" s="23" t="s">
+      <c r="R44" s="16" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3440,7 +3363,7 @@
       <c r="N45" s="13"/>
       <c r="O45" s="13"/>
       <c r="P45" s="13"/>
-      <c r="R45" s="23" t="s">
+      <c r="R45" s="16" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3448,12 +3371,24 @@
       <c r="A46" s="13">
         <v>44</v>
       </c>
-      <c r="B46" s="13"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="13"/>
+      <c r="B46" s="14">
+        <v>59.996000000000002</v>
+      </c>
+      <c r="C46" s="14">
+        <v>4.9950000000000001</v>
+      </c>
+      <c r="D46" s="14">
+        <v>30.152000000000001</v>
+      </c>
+      <c r="E46" s="14">
+        <v>60</v>
+      </c>
+      <c r="F46" s="14">
+        <v>0</v>
+      </c>
+      <c r="G46" s="14">
+        <v>30</v>
+      </c>
       <c r="H46" s="13"/>
       <c r="J46" s="13"/>
       <c r="K46" s="13"/>
@@ -3502,7 +3437,7 @@
       <c r="N47" s="13"/>
       <c r="O47" s="13"/>
       <c r="P47" s="13"/>
-      <c r="R47" s="23" t="s">
+      <c r="R47" s="16" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3510,14 +3445,56 @@
       <c r="A48" s="6">
         <v>46</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B48" s="14">
+        <v>59.996000000000002</v>
+      </c>
+      <c r="C48" s="14">
+        <v>9.9939999999999998</v>
+      </c>
+      <c r="D48" s="14">
+        <v>30.152000000000001</v>
+      </c>
+      <c r="E48" s="14">
+        <v>60</v>
+      </c>
+      <c r="F48" s="14">
+        <v>10</v>
+      </c>
+      <c r="G48" s="14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
         <v>47</v>
       </c>
+      <c r="B49" s="14">
+        <v>55.2</v>
+      </c>
+      <c r="C49" s="14">
+        <v>10</v>
+      </c>
+      <c r="D49" s="14">
+        <v>30</v>
+      </c>
+      <c r="E49" s="14">
+        <v>55</v>
+      </c>
+      <c r="F49" s="14">
+        <v>10</v>
+      </c>
+      <c r="G49" s="14">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
     <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
@@ -3525,63 +3502,57 @@
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="P1:P2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
   </mergeCells>
   <conditionalFormatting sqref="R3 M4:M25 R26:R47">
-    <cfRule type="cellIs" dxfId="18" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="13" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:L45">
-    <cfRule type="cellIs" dxfId="17" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="11" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="12" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q8">
-    <cfRule type="cellIs" dxfId="15" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="9" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q10">
-    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q12">
-    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q46">
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L47">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3593,8 +3564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46:E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3606,55 +3577,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21" t="s">
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="20" t="s">
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="L1" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19" t="s">
+      <c r="M1" s="21"/>
+      <c r="N1" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19" t="s">
+      <c r="O1" s="21"/>
+      <c r="P1" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19" t="s">
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="S1" s="19" t="s">
+      <c r="S1" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="T1" s="18" t="s">
+      <c r="T1" s="24" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="20"/>
+      <c r="A2" s="22"/>
       <c r="B2" s="1" t="s">
         <v>58</v>
       </c>
@@ -3673,19 +3644,19 @@
       <c r="G2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H2" s="20"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="18"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="24"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
@@ -4156,7 +4127,7 @@
       <c r="G10" s="13">
         <v>20</v>
       </c>
-      <c r="H10" s="22" t="s">
+      <c r="H10" s="15" t="s">
         <v>70</v>
       </c>
       <c r="I10" s="13">
@@ -4492,7 +4463,7 @@
       <c r="G15" s="13">
         <v>20.152000000000001</v>
       </c>
-      <c r="H15" s="22" t="s">
+      <c r="H15" s="15" t="s">
         <v>11</v>
       </c>
       <c r="I15" s="13">
@@ -6772,12 +6743,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
     <mergeCell ref="T1:T2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:M2"/>
@@ -6785,20 +6750,26 @@
     <mergeCell ref="P1:Q2"/>
     <mergeCell ref="R1:R2"/>
     <mergeCell ref="S1:S2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
   </mergeCells>
   <conditionalFormatting sqref="S3:U49">
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="8" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R3:R49">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
